--- a/DataTable/localization_beans.xlsx
+++ b/DataTable/localization_beans.xlsx
@@ -91,16 +91,16 @@
     <t>string</t>
   </si>
   <si>
-    <t>l10n.TextConfig_zh_CN</t>
-  </si>
-  <si>
-    <t>zh_cn</t>
-  </si>
-  <si>
-    <t>l10n.TextConfig_en</t>
-  </si>
-  <si>
-    <t>en</t>
+    <t>l10n.TextConfigChineseSimplified</t>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
+  </si>
+  <si>
+    <t>l10n.TextConfigEnglish</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
